--- a/HI2_SGE_JorgePardo/recursos/supermercado.xlsx
+++ b/HI2_SGE_JorgePardo/recursos/supermercado.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>IdCliente</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Jorge</t>
   </si>
   <si>
-    <t>Pablo</t>
-  </si>
-  <si>
     <t>Pardo</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>jorge.pardo@campusfp.es</t>
   </si>
   <si>
-    <t>pablo.pardo@campusfp.es</t>
-  </si>
-  <si>
     <t>IdProducto</t>
   </si>
   <si>
@@ -80,16 +74,25 @@
     <t>Coca-Cola</t>
   </si>
   <si>
+    <t>Escalope</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
-    <t>10</t>
+    <t>50</t>
   </si>
   <si>
     <t>IdPedido</t>
@@ -99,6 +102,15 @@
   </si>
   <si>
     <t>NombreCategoria</t>
+  </si>
+  <si>
+    <t>Bebidas</t>
+  </si>
+  <si>
+    <t>Carne</t>
+  </si>
+  <si>
+    <t>Frutas</t>
   </si>
   <si>
     <t>IdFactura</t>
@@ -462,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,36 +508,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +527,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -543,19 +535,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -563,16 +555,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -580,16 +572,33 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -607,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -623,7 +632,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -631,10 +640,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -642,7 +651,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -660,19 +685,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -680,16 +705,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
